--- a/docs/StructureDefinition-VAProblem.xlsx
+++ b/docs/StructureDefinition-VAProblem.xlsx
@@ -352,6 +352,253 @@
     <t>DomainResource.extension</t>
   </si>
   <si>
+    <t>richAnnotation-commentNumber</t>
+  </si>
+  <si>
+    <t>NOTE NUMBER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/richAnnotation.commentNumber}
+</t>
+  </si>
+  <si>
+    <t>Note #</t>
+  </si>
+  <si>
+    <t>This is the unique note identifier.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>problem @NOTE NUMBER 9000011.1111-.01</t>
+  </si>
+  <si>
+    <t>richAnnotation-text</t>
+  </si>
+  <si>
+    <t>NOTE NARRATIVE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/richAnnotation.text}
+</t>
+  </si>
+  <si>
+    <t>Note Narrative</t>
+  </si>
+  <si>
+    <t>Additional comments may be entered here to further describe this problem.</t>
+  </si>
+  <si>
+    <t>problem @NOTE NARRATIVE 9000011.1111-.03</t>
+  </si>
+  <si>
+    <t>richAnnotation-author</t>
+  </si>
+  <si>
+    <t>AUTHOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/richAnnotation.author}
+</t>
+  </si>
+  <si>
+    <t>Author</t>
+  </si>
+  <si>
+    <t>This is the provider who authored the text of this note.</t>
+  </si>
+  <si>
+    <t>undefined @AUTHOR 9000011.1111-.06</t>
+  </si>
+  <si>
+    <t>condition-lastModified</t>
+  </si>
+  <si>
+    <t>DATE LAST MODIFIED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/condition-lastModified}
+</t>
+  </si>
+  <si>
+    <t>Last Update</t>
+  </si>
+  <si>
+    <t>This is the last date/time this problem was changed.</t>
+  </si>
+  <si>
+    <t>undefined @DATE LAST MODIFIED 9000011-.03</t>
+  </si>
+  <si>
+    <t>condition-relationshipToShipboardHazardAndDefense</t>
+  </si>
+  <si>
+    <t>SHIPBOARD HAZARD &amp; DEFENSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/condition-relationshipToShipboardHazardAndDefense}
+</t>
+  </si>
+  <si>
+    <t>&lt;blank&gt;</t>
+  </si>
+  <si>
+    <t>PROBLEM  @SHIPBOARD HAZARD &amp; DEFENSE 9000011-1.18</t>
+  </si>
+  <si>
+    <t>condition-treatingClinic</t>
+  </si>
+  <si>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/condition-treatingClinic}
+</t>
+  </si>
+  <si>
+    <t>Optional Extensions Element</t>
+  </si>
+  <si>
+    <t>This is the clinic in which this patient is being seen for this problem. The problem list may be screened based on this value, to change one's view of the list.</t>
+  </si>
+  <si>
+    <t>HOSPITAL LOCATION @NAME 9000011-1.08</t>
+  </si>
+  <si>
+    <t>condition-treatingService</t>
+  </si>
+  <si>
+    <t>SERVICE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/condition-treatingService}
+</t>
+  </si>
+  <si>
+    <t>Service</t>
+  </si>
+  <si>
+    <t>This is the service primarily involved in the treatment of this problem; the DHCP Problem List defaults this field to the service defined in File #200 for the Recording Provider of this problem, upon entry of the problem.  It may later be used to categorize problems for screening and sorting.</t>
+  </si>
+  <si>
+    <t>undefined @SERVICE    9000011-1.06</t>
+  </si>
+  <si>
+    <t>condition-responsibleProvider</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/condition-responsibleProvider}
+</t>
+  </si>
+  <si>
+    <t>Optional Extension Element - found in all resources.</t>
+  </si>
+  <si>
+    <t>NEW PERSON  @NAME 9000011-1.05:200-.01</t>
+  </si>
+  <si>
+    <t>condition-relationshipToCombatExperience</t>
+  </si>
+  <si>
+    <t>COMBAT VETERAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/condition-relationshipToCombatExperience}
+</t>
+  </si>
+  <si>
+    <t>PROBLEM  @COMBAT VETERAN 9000011-1.17</t>
+  </si>
+  <si>
+    <t>condition-relationshipToMilitarySexualTrauma</t>
+  </si>
+  <si>
+    <t>MILITARY SEXUAL TRAUMA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/condition-relationshipToMilitarySexualTrauma}
+</t>
+  </si>
+  <si>
+    <t>If this problem is related to the treatment of military sexual trauma, it may be flagged here.</t>
+  </si>
+  <si>
+    <t>PROBLEM  @MILITARY SEXUAL TRAUMA 9000011-1.16</t>
+  </si>
+  <si>
+    <t>condition-relationshipToRadiumTreatment</t>
+  </si>
+  <si>
+    <t>HEAD AND.OR NECK CANCER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/condition-relationshipToRadiumTreatment}
+</t>
+  </si>
+  <si>
+    <t>If this problem is related to the treatment of head and/or neck cancer  associated with nose or throat radium treatments, it may be flagged here.</t>
+  </si>
+  <si>
+    <t>PROBLEM  @HEAD AND.OR NECK CANCER 9000011-1.15</t>
+  </si>
+  <si>
+    <t>condition-relationshipToPersianGulfService</t>
+  </si>
+  <si>
+    <t>PERSIAN GULF EXPOSURE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/condition-relationshipToPersianGulfService}
+</t>
+  </si>
+  <si>
+    <t>If this problem is related to a patient's service in the Persian Gulf, it may be flagged here.</t>
+  </si>
+  <si>
+    <t>PROBLEM  @PERSIAN GULF EXPOSURE 9000011-1.13</t>
+  </si>
+  <si>
+    <t>condition-relationshipToRadiation</t>
+  </si>
+  <si>
+    <t>IONIZING RADIATION EXPOSURE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/condition-relationshipToRadiation}
+</t>
+  </si>
+  <si>
+    <t>If this problem is related to a patient's exposure to ionizing radiation, it may be flagged here.</t>
+  </si>
+  <si>
+    <t>PROBLEM  @IONIZING RADIATION EXPOSURE 9000011-1.12</t>
+  </si>
+  <si>
+    <t>condition-relationshipToAgentOrangeExposure</t>
+  </si>
+  <si>
+    <t>AGENT ORANGE EXPOSURE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/condition-relationshipToAgentOrangeExposure}
+</t>
+  </si>
+  <si>
+    <t>Exposure</t>
+  </si>
+  <si>
+    <t>If this problem is related to a patient's exposure to Agent Orange, it may be flagged here.</t>
+  </si>
+  <si>
+    <t>PROBLEM  @AGENT ORANGE EXPOSURE 9000011-1.11</t>
+  </si>
+  <si>
     <t>condition-priority</t>
   </si>
   <si>
@@ -368,254 +615,7 @@
     <t>This is a flag to indicate how critical this problem is for this patient; problems marked as Acute will be flagged on the Problem List display.</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
     <t>PROBLEM  @PRIORITY 9000011-1.14</t>
-  </si>
-  <si>
-    <t>condition-relationshipToAgentOrangeExposure</t>
-  </si>
-  <si>
-    <t>AGENT ORANGE EXPOSURE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/condition-relationshipToAgentOrangeExposure}
-</t>
-  </si>
-  <si>
-    <t>Exposure</t>
-  </si>
-  <si>
-    <t>If this problem is related to a patient's exposure to Agent Orange, it may be flagged here.</t>
-  </si>
-  <si>
-    <t>PROBLEM  @AGENT ORANGE EXPOSURE 9000011-1.11</t>
-  </si>
-  <si>
-    <t>condition-relationshipToRadiation</t>
-  </si>
-  <si>
-    <t>IONIZING RADIATION EXPOSURE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/condition-relationshipToRadiation}
-</t>
-  </si>
-  <si>
-    <t>If this problem is related to a patient's exposure to ionizing radiation, it may be flagged here.</t>
-  </si>
-  <si>
-    <t>PROBLEM  @IONIZING RADIATION EXPOSURE 9000011-1.12</t>
-  </si>
-  <si>
-    <t>condition-relationshipToPersianGulfService</t>
-  </si>
-  <si>
-    <t>PERSIAN GULF EXPOSURE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/condition-relationshipToPersianGulfService}
-</t>
-  </si>
-  <si>
-    <t>If this problem is related to a patient's service in the Persian Gulf, it may be flagged here.</t>
-  </si>
-  <si>
-    <t>PROBLEM  @PERSIAN GULF EXPOSURE 9000011-1.13</t>
-  </si>
-  <si>
-    <t>condition-relationshipToRadiumTreatment</t>
-  </si>
-  <si>
-    <t>HEAD AND.OR NECK CANCER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/condition-relationshipToRadiumTreatment}
-</t>
-  </si>
-  <si>
-    <t>If this problem is related to the treatment of head and/or neck cancer  associated with nose or throat radium treatments, it may be flagged here.</t>
-  </si>
-  <si>
-    <t>PROBLEM  @HEAD AND.OR NECK CANCER 9000011-1.15</t>
-  </si>
-  <si>
-    <t>condition-relationshipToMilitarySexualTrauma</t>
-  </si>
-  <si>
-    <t>MILITARY SEXUAL TRAUMA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/condition-relationshipToMilitarySexualTrauma}
-</t>
-  </si>
-  <si>
-    <t>If this problem is related to the treatment of military sexual trauma, it may be flagged here.</t>
-  </si>
-  <si>
-    <t>PROBLEM  @MILITARY SEXUAL TRAUMA 9000011-1.16</t>
-  </si>
-  <si>
-    <t>condition-relationshipToCombatExperience</t>
-  </si>
-  <si>
-    <t>COMBAT VETERAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/condition-relationshipToCombatExperience}
-</t>
-  </si>
-  <si>
-    <t>&lt;blank&gt;</t>
-  </si>
-  <si>
-    <t>PROBLEM  @COMBAT VETERAN 9000011-1.17</t>
-  </si>
-  <si>
-    <t>condition-responsibleProvider</t>
-  </si>
-  <si>
-    <t>NAME</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/condition-responsibleProvider}
-</t>
-  </si>
-  <si>
-    <t>Optional Extensions Element</t>
-  </si>
-  <si>
-    <t>Optional Extension Element - found in all resources.</t>
-  </si>
-  <si>
-    <t>NEW PERSON  @NAME 9000011-1.05:200-.01</t>
-  </si>
-  <si>
-    <t>condition-treatingService</t>
-  </si>
-  <si>
-    <t>SERVICE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/condition-treatingService}
-</t>
-  </si>
-  <si>
-    <t>Service</t>
-  </si>
-  <si>
-    <t>This is the service primarily involved in the treatment of this problem; the DHCP Problem List defaults this field to the service defined in File #200 for the Recording Provider of this problem, upon entry of the problem.  It may later be used to categorize problems for screening and sorting.</t>
-  </si>
-  <si>
-    <t>undefined @SERVICE    9000011-1.06</t>
-  </si>
-  <si>
-    <t>condition-treatingClinic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/condition-treatingClinic}
-</t>
-  </si>
-  <si>
-    <t>This is the clinic in which this patient is being seen for this problem. The problem list may be screened based on this value, to change one's view of the list.</t>
-  </si>
-  <si>
-    <t>HOSPITAL LOCATION @NAME 9000011-1.08</t>
-  </si>
-  <si>
-    <t>condition-relationshipToShipboardHazardAndDefense</t>
-  </si>
-  <si>
-    <t>SHIPBOARD HAZARD &amp; DEFENSE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/condition-relationshipToShipboardHazardAndDefense}
-</t>
-  </si>
-  <si>
-    <t>PROBLEM  @SHIPBOARD HAZARD &amp; DEFENSE 9000011-1.18</t>
-  </si>
-  <si>
-    <t>condition-lastModified</t>
-  </si>
-  <si>
-    <t>DATE LAST MODIFIED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/condition-lastModified}
-</t>
-  </si>
-  <si>
-    <t>Last Update</t>
-  </si>
-  <si>
-    <t>This is the last date/time this problem was changed.</t>
-  </si>
-  <si>
-    <t>undefined @DATE LAST MODIFIED 9000011-.03</t>
-  </si>
-  <si>
-    <t>richAnnotation/author</t>
-  </si>
-  <si>
-    <t>AUTHOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/richAnnotation.author}
-</t>
-  </si>
-  <si>
-    <t>Author</t>
-  </si>
-  <si>
-    <t>This is the provider who authored the text of this note.</t>
-  </si>
-  <si>
-    <t>undefined @AUTHOR 9000011.1111-.06</t>
-  </si>
-  <si>
-    <t>richAnnotation/text</t>
-  </si>
-  <si>
-    <t>NOTE NARRATIVE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/richAnnotation.text}
-</t>
-  </si>
-  <si>
-    <t>Note Narrative</t>
-  </si>
-  <si>
-    <t>Additional comments may be entered here to further describe this problem.</t>
-  </si>
-  <si>
-    <t>problem @NOTE NARRATIVE 9000011.1111-.03</t>
-  </si>
-  <si>
-    <t>richAnnotation/commentNumber</t>
-  </si>
-  <si>
-    <t>NOTE NUMBER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/richAnnotation.commentNumber}
-</t>
-  </si>
-  <si>
-    <t>Note #</t>
-  </si>
-  <si>
-    <t>This is the unique note identifier.</t>
-  </si>
-  <si>
-    <t>problem @NOTE NUMBER 9000011.1111-.01</t>
   </si>
   <si>
     <t>Condition.modifierExtension</t>
@@ -2991,10 +2991,10 @@
         <v>120</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>43</v>
+        <v>121</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -3060,7 +3060,7 @@
         <v>110</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>42</v>
@@ -3083,13 +3083,13 @@
         <v>97</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C13" t="s" s="2">
         <v>42</v>
       </c>
       <c r="D13" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E13" t="s" s="2">
         <v>43</v>
@@ -3107,13 +3107,13 @@
         <v>42</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>43</v>
+        <v>127</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -3179,7 +3179,7 @@
         <v>110</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>42</v>
@@ -3202,13 +3202,13 @@
         <v>97</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C14" t="s" s="2">
         <v>42</v>
       </c>
       <c r="D14" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E14" t="s" s="2">
         <v>43</v>
@@ -3226,13 +3226,13 @@
         <v>42</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K14" t="s" s="2">
         <v>43</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -3298,7 +3298,7 @@
         <v>110</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>42</v>
@@ -3321,13 +3321,13 @@
         <v>97</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C15" t="s" s="2">
         <v>42</v>
       </c>
       <c r="D15" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E15" t="s" s="2">
         <v>43</v>
@@ -3345,13 +3345,13 @@
         <v>42</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>43</v>
+        <v>138</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -3417,7 +3417,7 @@
         <v>110</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>42</v>
@@ -3440,13 +3440,13 @@
         <v>97</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C16" t="s" s="2">
         <v>42</v>
       </c>
       <c r="D16" t="s" s="2">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="E16" t="s" s="2">
         <v>43</v>
@@ -3464,13 +3464,13 @@
         <v>42</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>43</v>
+        <v>144</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -3536,7 +3536,7 @@
         <v>110</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>42</v>
@@ -3559,13 +3559,13 @@
         <v>97</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C17" t="s" s="2">
         <v>42</v>
       </c>
       <c r="D17" t="s" s="2">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="E17" t="s" s="2">
         <v>43</v>
@@ -3583,13 +3583,13 @@
         <v>42</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -3655,7 +3655,7 @@
         <v>110</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>42</v>
@@ -3678,13 +3678,13 @@
         <v>97</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C18" t="s" s="2">
         <v>42</v>
       </c>
       <c r="D18" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E18" t="s" s="2">
         <v>43</v>
@@ -3702,13 +3702,13 @@
         <v>42</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>152</v>
+        <v>43</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3803,7 +3803,7 @@
         <v>42</v>
       </c>
       <c r="D19" t="s" s="2">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="E19" t="s" s="2">
         <v>43</v>
@@ -3821,13 +3821,13 @@
         <v>42</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>146</v>
+        <v>43</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -3893,7 +3893,7 @@
         <v>110</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>42</v>
@@ -3916,13 +3916,13 @@
         <v>97</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C20" t="s" s="2">
         <v>42</v>
       </c>
       <c r="D20" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E20" t="s" s="2">
         <v>43</v>
@@ -3940,13 +3940,13 @@
         <v>42</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K20" t="s" s="2">
         <v>43</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>141</v>
+        <v>163</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -4012,7 +4012,7 @@
         <v>110</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>42</v>
@@ -4035,13 +4035,13 @@
         <v>97</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C21" t="s" s="2">
         <v>42</v>
       </c>
       <c r="D21" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E21" t="s" s="2">
         <v>43</v>
@@ -4059,13 +4059,13 @@
         <v>42</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>166</v>
+        <v>43</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -4131,7 +4131,7 @@
         <v>110</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>42</v>
@@ -4154,13 +4154,13 @@
         <v>97</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C22" t="s" s="2">
         <v>42</v>
       </c>
       <c r="D22" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E22" t="s" s="2">
         <v>43</v>
@@ -4178,10 +4178,10 @@
         <v>42</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>172</v>
+        <v>43</v>
       </c>
       <c r="L22" t="s" s="2">
         <v>173</v>

--- a/docs/StructureDefinition-VAProblem.xlsx
+++ b/docs/StructureDefinition-VAProblem.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$63</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$64</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2348" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2386" uniqueCount="464">
   <si>
     <t>Path</t>
   </si>
@@ -597,6 +597,25 @@
   </si>
   <si>
     <t>PROBLEM  @AGENT ORANGE EXPOSURE 9000011-1.11</t>
+  </si>
+  <si>
+    <t>condition-relationshipToService</t>
+  </si>
+  <si>
+    <t>SERVICE CONNECTED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/condition-relationshipToService}
+</t>
+  </si>
+  <si>
+    <t>Service Connected Condition</t>
+  </si>
+  <si>
+    <t>If the patient has service connection on file in the DHCP Patient file #2, this problem specifically may be flagged as being service connected.</t>
+  </si>
+  <si>
+    <t>PROBLEM  @SERVICE CONNECTED 9000011-1.1</t>
   </si>
   <si>
     <t>condition-priority</t>
@@ -1616,7 +1635,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO63"/>
+  <dimension ref="A1:AO64"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -4506,15 +4525,19 @@
         <v>42</v>
       </c>
     </row>
-    <row r="25" hidden="true">
+    <row r="25">
       <c r="A25" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="B25" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D25" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
         <v>43</v>
       </c>
@@ -4522,26 +4545,24 @@
         <v>44</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>98</v>
+        <v>189</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="M25" t="s" s="2">
         <v>191</v>
       </c>
+      <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>42</v>
@@ -4590,7 +4611,7 @@
         <v>42</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>192</v>
+        <v>103</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>43</v>
@@ -4599,13 +4620,13 @@
         <v>44</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>42</v>
+        <v>109</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>42</v>
+        <v>192</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>42</v>
@@ -4629,7 +4650,7 @@
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>42</v>
+        <v>194</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
@@ -4642,13 +4663,13 @@
         <v>42</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>194</v>
+        <v>98</v>
       </c>
       <c r="K26" t="s" s="2">
         <v>195</v>
@@ -4656,10 +4677,10 @@
       <c r="L26" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="M26" s="2"/>
-      <c r="N26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>197</v>
       </c>
+      <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>42</v>
       </c>
@@ -4707,7 +4728,7 @@
         <v>42</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>43</v>
@@ -4731,54 +4752,52 @@
         <v>42</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>198</v>
+        <v>96</v>
       </c>
       <c r="AN26" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AO26" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" hidden="true">
+      <c r="A27" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="AO26" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="D27" t="s" s="2">
-        <v>201</v>
-      </c>
+      <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>54</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>72</v>
+        <v>200</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" s="2"/>
+      <c r="N27" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="M27" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>42</v>
       </c>
@@ -4802,58 +4821,58 @@
         <v>42</v>
       </c>
       <c r="W27" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X27" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y27" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z27" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA27" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE27" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="AF27" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG27" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH27" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI27" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK27" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL27" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AM27" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="AN27" t="s" s="2">
         <v>205</v>
-      </c>
-      <c r="X27" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="Y27" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="Z27" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA27" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB27" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC27" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD27" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE27" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="AF27" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG27" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH27" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="AI27" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ27" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="AK27" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="AL27" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="AM27" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="AN27" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>42</v>
@@ -4861,14 +4880,14 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
         <v>42</v>
       </c>
       <c r="D28" t="s" s="2">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="E28" t="s" s="2">
         <v>43</v>
@@ -4889,17 +4908,17 @@
         <v>72</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>219</v>
+        <v>42</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
@@ -4921,13 +4940,13 @@
         <v>42</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>42</v>
@@ -4945,7 +4964,7 @@
         <v>42</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>43</v>
@@ -4954,69 +4973,71 @@
         <v>53</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>227</v>
+        <v>42</v>
       </c>
     </row>
-    <row r="29" hidden="true">
+    <row r="29">
       <c r="A29" t="s" s="2">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="D29" s="2"/>
+      <c r="D29" t="s" s="2">
+        <v>221</v>
+      </c>
       <c r="E29" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>229</v>
+        <v>72</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
-        <v>42</v>
+        <v>225</v>
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" t="s" s="2">
@@ -5038,66 +5059,66 @@
         <v>42</v>
       </c>
       <c r="W29" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="X29" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="Y29" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="Z29" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA29" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE29" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="AF29" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="AK29" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AL29" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="AM29" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="AN29" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="AO29" t="s" s="2">
         <v>233</v>
-      </c>
-      <c r="X29" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="Y29" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="Z29" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA29" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB29" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC29" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD29" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE29" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="AF29" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG29" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH29" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI29" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ29" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK29" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="AL29" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="AN29" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="AO29" t="s" s="2">
-        <v>42</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5108,7 +5129,7 @@
         <v>43</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>42</v>
@@ -5120,16 +5141,16 @@
         <v>42</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -5155,70 +5176,70 @@
         <v>42</v>
       </c>
       <c r="W30" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="X30" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="Y30" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="Z30" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA30" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE30" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="AF30" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG30" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH30" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI30" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK30" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="AL30" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="AM30" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="X30" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="Y30" t="s" s="2">
+      <c r="AN30" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="Z30" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA30" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB30" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC30" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD30" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE30" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="AF30" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG30" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH30" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI30" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ30" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK30" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="AL30" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="AM30" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="AN30" t="s" s="2">
-        <v>248</v>
-      </c>
       <c r="AO30" t="s" s="2">
-        <v>249</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>251</v>
+        <v>42</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -5234,21 +5255,21 @@
         <v>42</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="M31" s="2"/>
-      <c r="N31" t="s" s="2">
-        <v>254</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>42</v>
       </c>
@@ -5272,13 +5293,13 @@
         <v>42</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>233</v>
+        <v>249</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>42</v>
@@ -5296,7 +5317,7 @@
         <v>42</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>43</v>
@@ -5314,28 +5335,28 @@
         <v>42</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>42</v>
+        <v>257</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -5351,19 +5372,21 @@
         <v>42</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>263</v>
+        <v>235</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
+      <c r="N32" t="s" s="2">
+        <v>260</v>
+      </c>
       <c r="O32" t="s" s="2">
         <v>42</v>
       </c>
@@ -5387,13 +5410,13 @@
         <v>42</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>42</v>
+        <v>239</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>42</v>
+        <v>261</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>42</v>
+        <v>262</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>42</v>
@@ -5411,7 +5434,7 @@
         <v>42</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>43</v>
@@ -5429,19 +5452,19 @@
         <v>42</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>42</v>
+        <v>263</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>42</v>
+        <v>264</v>
       </c>
       <c r="AM32" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="AN32" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="AO32" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="AN32" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AO32" t="s" s="2">
-        <v>42</v>
       </c>
     </row>
     <row r="33" hidden="true">
@@ -5450,14 +5473,14 @@
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>188</v>
+        <v>42</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>42</v>
@@ -5469,17 +5492,15 @@
         <v>42</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>98</v>
+        <v>269</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>191</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>42</v>
@@ -5516,16 +5537,16 @@
         <v>42</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>101</v>
+        <v>42</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>271</v>
+        <v>42</v>
       </c>
       <c r="AC33" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>102</v>
+        <v>42</v>
       </c>
       <c r="AE33" t="s" s="2">
         <v>272</v>
@@ -5534,7 +5555,7 @@
         <v>43</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>42</v>
@@ -5552,7 +5573,7 @@
         <v>42</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>42</v>
@@ -5563,11 +5584,11 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>42</v>
+        <v>194</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -5583,10 +5604,10 @@
         <v>42</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>274</v>
+        <v>98</v>
       </c>
       <c r="K34" t="s" s="2">
         <v>275</v>
@@ -5595,11 +5616,9 @@
         <v>276</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>278</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>42</v>
       </c>
@@ -5635,19 +5654,19 @@
         <v>42</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>42</v>
+        <v>101</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>42</v>
+        <v>277</v>
       </c>
       <c r="AC34" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>42</v>
+        <v>102</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>43</v>
@@ -5668,10 +5687,10 @@
         <v>42</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>280</v>
+        <v>42</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>42</v>
@@ -5682,7 +5701,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5693,7 +5712,7 @@
         <v>43</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>42</v>
@@ -5702,19 +5721,23 @@
         <v>42</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>263</v>
+        <v>280</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>264</v>
+        <v>281</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
+        <v>282</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>284</v>
+      </c>
       <c r="O35" t="s" s="2">
         <v>42</v>
       </c>
@@ -5762,13 +5785,13 @@
         <v>42</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>266</v>
+        <v>285</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>42</v>
@@ -5783,10 +5806,10 @@
         <v>42</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>42</v>
+        <v>286</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>267</v>
+        <v>287</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>42</v>
@@ -5797,18 +5820,18 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>188</v>
+        <v>42</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>42</v>
@@ -5820,17 +5843,15 @@
         <v>42</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>98</v>
+        <v>269</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>191</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="M36" s="2"/>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>42</v>
@@ -5867,16 +5888,16 @@
         <v>42</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>101</v>
+        <v>42</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>271</v>
+        <v>42</v>
       </c>
       <c r="AC36" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>102</v>
+        <v>42</v>
       </c>
       <c r="AE36" t="s" s="2">
         <v>272</v>
@@ -5885,7 +5906,7 @@
         <v>43</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>42</v>
@@ -5903,7 +5924,7 @@
         <v>42</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>42</v>
@@ -5912,47 +5933,43 @@
         <v>42</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="D37" t="s" s="2">
-        <v>285</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>42</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>66</v>
+        <v>98</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>289</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>42</v>
       </c>
@@ -5988,60 +6005,62 @@
         <v>42</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>42</v>
+        <v>101</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>42</v>
+        <v>277</v>
       </c>
       <c r="AC37" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>42</v>
+        <v>102</v>
       </c>
       <c r="AE37" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="AF37" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK37" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL37" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AM37" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="AN37" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AO37" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="AF37" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG37" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH37" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI37" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ37" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="AK37" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL37" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="AM37" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="AN37" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AO37" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="38" hidden="true">
-      <c r="A38" t="s" s="2">
-        <v>294</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="D38" s="2"/>
+      <c r="D38" t="s" s="2">
+        <v>291</v>
+      </c>
       <c r="E38" t="s" s="2">
         <v>43</v>
       </c>
@@ -6049,7 +6068,7 @@
         <v>53</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>42</v>
@@ -6058,18 +6077,20 @@
         <v>54</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>263</v>
+        <v>66</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="L38" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="N38" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="L38" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>42</v>
       </c>
@@ -6117,7 +6138,7 @@
         <v>42</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>43</v>
@@ -6132,35 +6153,33 @@
         <v>42</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>42</v>
+        <v>297</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL38" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="AM38" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="AM38" t="s" s="2">
+      <c r="AN38" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AO38" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" hidden="true">
+      <c r="A39" t="s" s="2">
         <v>300</v>
-      </c>
-      <c r="AN38" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AO38" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s" s="2">
-        <v>301</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="D39" t="s" s="2">
-        <v>302</v>
-      </c>
+      <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
         <v>43</v>
       </c>
@@ -6168,7 +6187,7 @@
         <v>53</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>42</v>
@@ -6177,18 +6196,18 @@
         <v>54</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>72</v>
+        <v>269</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="M39" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="L39" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="M39" s="2"/>
-      <c r="N39" t="s" s="2">
-        <v>305</v>
-      </c>
+      <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>42</v>
       </c>
@@ -6236,7 +6255,7 @@
         <v>42</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>43</v>
@@ -6251,33 +6270,35 @@
         <v>42</v>
       </c>
       <c r="AJ39" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL39" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="AM39" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="AN39" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AO39" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="2">
         <v>307</v>
-      </c>
-      <c r="AK39" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL39" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="AM39" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="AN39" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AO39" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="40" hidden="true">
-      <c r="A40" t="s" s="2">
-        <v>310</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="D40" s="2"/>
+      <c r="D40" t="s" s="2">
+        <v>308</v>
+      </c>
       <c r="E40" t="s" s="2">
         <v>43</v>
       </c>
@@ -6285,7 +6306,7 @@
         <v>53</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>42</v>
@@ -6294,17 +6315,17 @@
         <v>54</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>263</v>
+        <v>72</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" t="s" s="2">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>42</v>
@@ -6353,7 +6374,7 @@
         <v>42</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>43</v>
@@ -6368,16 +6389,16 @@
         <v>42</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>42</v>
+        <v>313</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL40" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="AM40" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="AM40" t="s" s="2">
-        <v>316</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>42</v>
@@ -6388,7 +6409,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6411,19 +6432,17 @@
         <v>54</v>
       </c>
       <c r="J41" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="K41" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="K41" t="s" s="2">
+      <c r="M41" s="2"/>
+      <c r="N41" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>322</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>42</v>
@@ -6472,7 +6491,7 @@
         <v>42</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>43</v>
@@ -6493,10 +6512,10 @@
         <v>42</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>42</v>
@@ -6505,17 +6524,15 @@
         <v>42</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="D42" t="s" s="2">
-        <v>327</v>
-      </c>
+      <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
         <v>43</v>
       </c>
@@ -6523,7 +6540,7 @@
         <v>53</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>42</v>
@@ -6532,19 +6549,19 @@
         <v>54</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>263</v>
+        <v>324</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="N42" t="s" s="2">
         <v>328</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>331</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>42</v>
@@ -6593,7 +6610,7 @@
         <v>42</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>43</v>
@@ -6608,16 +6625,16 @@
         <v>42</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>333</v>
+        <v>42</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>42</v>
@@ -6626,23 +6643,25 @@
         <v>42</v>
       </c>
     </row>
-    <row r="43" hidden="true">
+    <row r="43">
       <c r="A43" t="s" s="2">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="D43" s="2"/>
+      <c r="D43" t="s" s="2">
+        <v>333</v>
+      </c>
       <c r="E43" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>42</v>
@@ -6651,18 +6670,20 @@
         <v>54</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>229</v>
+        <v>269</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="N43" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="L43" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>42</v>
       </c>
@@ -6686,77 +6707,77 @@
         <v>42</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>233</v>
+        <v>42</v>
       </c>
       <c r="X43" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y43" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z43" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA43" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE43" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="AF43" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="AK43" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL43" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="Y43" t="s" s="2">
+      <c r="AM43" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="Z43" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AA43" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB43" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AC43" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AD43" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AE43" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="AF43" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG43" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH43" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AI43" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ43" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK43" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="AL43" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AM43" t="s" s="2">
-        <v>343</v>
-      </c>
       <c r="AN43" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>344</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>346</v>
+        <v>42</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>42</v>
@@ -6768,18 +6789,18 @@
         <v>54</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>347</v>
+        <v>235</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="M44" s="2"/>
-      <c r="N44" t="s" s="2">
-        <v>350</v>
-      </c>
+        <v>344</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>42</v>
       </c>
@@ -6803,13 +6824,13 @@
         <v>42</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>42</v>
+        <v>239</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>42</v>
+        <v>346</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>42</v>
+        <v>347</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>42</v>
@@ -6827,13 +6848,13 @@
         <v>42</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>42</v>
@@ -6845,32 +6866,32 @@
         <v>42</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>42</v>
+        <v>348</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>351</v>
+        <v>42</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>353</v>
+        <v>42</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>42</v>
+        <v>350</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="F45" t="s" s="2">
         <v>53</v>
@@ -6885,18 +6906,18 @@
         <v>54</v>
       </c>
       <c r="J45" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="K45" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="M45" s="2"/>
+      <c r="N45" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="K45" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>42</v>
       </c>
@@ -6944,10 +6965,10 @@
         <v>42</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>53</v>
@@ -6965,13 +6986,13 @@
         <v>42</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>42</v>
@@ -6979,11 +7000,11 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>42</v>
+        <v>361</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -7002,16 +7023,16 @@
         <v>54</v>
       </c>
       <c r="J46" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="K46" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="K46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>365</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>367</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -7049,17 +7070,19 @@
         <v>42</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="AB46" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="AC46" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>369</v>
+        <v>42</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>43</v>
@@ -7080,31 +7103,27 @@
         <v>42</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>42</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="B47" t="s" s="2">
-        <v>373</v>
-      </c>
+        <v>369</v>
+      </c>
+      <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="D47" t="s" s="2">
-        <v>374</v>
-      </c>
+      <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
         <v>43</v>
       </c>
@@ -7112,7 +7131,7 @@
         <v>53</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>42</v>
@@ -7121,16 +7140,16 @@
         <v>54</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -7168,19 +7187,17 @@
         <v>42</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB47" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>374</v>
+      </c>
+      <c r="AB47" s="2"/>
       <c r="AC47" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>42</v>
+        <v>375</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>43</v>
@@ -7195,33 +7212,37 @@
         <v>42</v>
       </c>
       <c r="AJ47" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL47" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="AM47" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="AK47" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL47" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="AM47" t="s" s="2">
-        <v>371</v>
-      </c>
       <c r="AN47" t="s" s="2">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>42</v>
       </c>
     </row>
-    <row r="48" hidden="true">
+    <row r="48">
       <c r="A48" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="B48" s="2"/>
+        <v>369</v>
+      </c>
+      <c r="B48" t="s" s="2">
+        <v>379</v>
+      </c>
       <c r="C48" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="D48" s="2"/>
+      <c r="D48" t="s" s="2">
+        <v>380</v>
+      </c>
       <c r="E48" t="s" s="2">
         <v>43</v>
       </c>
@@ -7229,25 +7250,25 @@
         <v>53</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>42</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -7297,7 +7318,7 @@
         <v>42</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>43</v>
@@ -7306,41 +7327,39 @@
         <v>53</v>
       </c>
       <c r="AH48" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="AI48" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AJ48" t="s" s="2">
-        <v>42</v>
-      </c>
       <c r="AK48" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>42</v>
+        <v>376</v>
       </c>
       <c r="AM48" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="AN48" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="AO48" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="49" hidden="true">
+      <c r="A49" t="s" s="2">
         <v>384</v>
-      </c>
-      <c r="AN48" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="AO48" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="s" s="2">
-        <v>386</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="D49" t="s" s="2">
-        <v>387</v>
-      </c>
+      <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
         <v>43</v>
       </c>
@@ -7348,25 +7367,25 @@
         <v>53</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>42</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>364</v>
+        <v>385</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="M49" t="s" s="2">
         <v>388</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>390</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -7416,7 +7435,7 @@
         <v>42</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>43</v>
@@ -7425,25 +7444,25 @@
         <v>53</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>42</v>
+        <v>389</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ49" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AM49" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="AN49" t="s" s="2">
         <v>391</v>
-      </c>
-      <c r="AK49" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL49" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="AM49" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="AN49" t="s" s="2">
-        <v>394</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>42</v>
@@ -7451,14 +7470,14 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
         <v>42</v>
       </c>
       <c r="D50" t="s" s="2">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="E50" t="s" s="2">
         <v>43</v>
@@ -7476,15 +7495,17 @@
         <v>54</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>397</v>
+        <v>370</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="M50" s="2"/>
+        <v>395</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>396</v>
+      </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>42</v>
@@ -7533,7 +7554,7 @@
         <v>42</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>43</v>
@@ -7548,33 +7569,35 @@
         <v>42</v>
       </c>
       <c r="AJ50" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL50" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="AM50" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="AN50" t="s" s="2">
         <v>400</v>
       </c>
-      <c r="AK50" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL50" t="s" s="2">
+      <c r="AO50" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="2">
         <v>401</v>
-      </c>
-      <c r="AM50" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="AN50" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="AO50" t="s" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="51" hidden="true">
-      <c r="A51" t="s" s="2">
-        <v>404</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="D51" s="2"/>
+      <c r="D51" t="s" s="2">
+        <v>402</v>
+      </c>
       <c r="E51" t="s" s="2">
         <v>43</v>
       </c>
@@ -7582,22 +7605,22 @@
         <v>53</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>42</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="J51" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>405</v>
-      </c>
-      <c r="K51" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>407</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7648,7 +7671,7 @@
         <v>42</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>43</v>
@@ -7660,22 +7683,22 @@
         <v>42</v>
       </c>
       <c r="AI51" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="AM51" t="s" s="2">
         <v>408</v>
       </c>
-      <c r="AJ51" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AK51" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AL51" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AM51" t="s" s="2">
+      <c r="AN51" t="s" s="2">
         <v>409</v>
-      </c>
-      <c r="AN51" t="s" s="2">
-        <v>42</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>42</v>
@@ -7706,13 +7729,13 @@
         <v>42</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>263</v>
+        <v>411</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>264</v>
+        <v>412</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>265</v>
+        <v>413</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -7763,7 +7786,7 @@
         <v>42</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>266</v>
+        <v>410</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>43</v>
@@ -7775,7 +7798,7 @@
         <v>42</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>42</v>
+        <v>414</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>42</v>
@@ -7787,7 +7810,7 @@
         <v>42</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>267</v>
+        <v>415</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>42</v>
@@ -7798,18 +7821,18 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>188</v>
+        <v>42</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>42</v>
@@ -7821,17 +7844,15 @@
         <v>42</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>98</v>
+        <v>269</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>191</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="M53" s="2"/>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>42</v>
@@ -7886,7 +7907,7 @@
         <v>43</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>42</v>
@@ -7904,7 +7925,7 @@
         <v>42</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>42</v>
@@ -7915,11 +7936,11 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>413</v>
+        <v>194</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
@@ -7932,22 +7953,22 @@
         <v>42</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="J54" t="s" s="2">
         <v>98</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>189</v>
+        <v>275</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>414</v>
+        <v>276</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -7997,7 +8018,7 @@
         <v>42</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>415</v>
+        <v>278</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>43</v>
@@ -8021,7 +8042,7 @@
         <v>42</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>96</v>
+        <v>273</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>42</v>
@@ -8032,38 +8053,40 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>42</v>
+        <v>419</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>229</v>
+        <v>98</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>417</v>
+        <v>195</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="M55" s="2"/>
+        <v>420</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>197</v>
+      </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>42</v>
@@ -8088,13 +8111,13 @@
         <v>42</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>233</v>
+        <v>42</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>419</v>
+        <v>42</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>420</v>
+        <v>42</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>42</v>
@@ -8112,16 +8135,16 @@
         <v>42</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>421</v>
+        <v>42</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>42</v>
@@ -8130,13 +8153,13 @@
         <v>42</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>422</v>
+        <v>42</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>423</v>
+        <v>42</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>259</v>
+        <v>96</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>42</v>
@@ -8147,7 +8170,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8158,7 +8181,7 @@
         <v>43</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>42</v>
@@ -8170,13 +8193,13 @@
         <v>42</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>425</v>
+        <v>235</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -8203,13 +8226,13 @@
         <v>42</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>42</v>
+        <v>239</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>42</v>
+        <v>425</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>42</v>
+        <v>426</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>42</v>
@@ -8227,16 +8250,16 @@
         <v>42</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>42</v>
@@ -8245,13 +8268,13 @@
         <v>42</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>42</v>
+        <v>428</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>42</v>
+        <v>429</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>428</v>
+        <v>265</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>42</v>
@@ -8262,7 +8285,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8285,17 +8308,15 @@
         <v>42</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>405</v>
+        <v>431</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>432</v>
-      </c>
+        <v>433</v>
+      </c>
+      <c r="M57" s="2"/>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>42</v>
@@ -8344,7 +8365,7 @@
         <v>42</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>43</v>
@@ -8353,10 +8374,10 @@
         <v>44</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>42</v>
+        <v>427</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>433</v>
+        <v>42</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>42</v>
@@ -8390,7 +8411,7 @@
         <v>43</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>42</v>
@@ -8402,15 +8423,17 @@
         <v>42</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>263</v>
+        <v>411</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>264</v>
+        <v>436</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="M58" s="2"/>
+        <v>437</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>438</v>
+      </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>42</v>
@@ -8459,19 +8482,19 @@
         <v>42</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>266</v>
+        <v>435</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>42</v>
+        <v>439</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>42</v>
@@ -8483,7 +8506,7 @@
         <v>42</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>267</v>
+        <v>440</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>42</v>
@@ -8494,18 +8517,18 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>188</v>
+        <v>42</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>42</v>
@@ -8517,17 +8540,15 @@
         <v>42</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>98</v>
+        <v>269</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>191</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="M59" s="2"/>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>42</v>
@@ -8582,7 +8603,7 @@
         <v>43</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>42</v>
@@ -8600,7 +8621,7 @@
         <v>42</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>42</v>
@@ -8611,11 +8632,11 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>413</v>
+        <v>194</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
@@ -8628,22 +8649,22 @@
         <v>42</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="J60" t="s" s="2">
         <v>98</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>189</v>
+        <v>275</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>414</v>
+        <v>276</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
@@ -8693,7 +8714,7 @@
         <v>42</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>415</v>
+        <v>278</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>43</v>
@@ -8717,7 +8738,7 @@
         <v>42</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>96</v>
+        <v>273</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>42</v>
@@ -8728,11 +8749,11 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>42</v>
+        <v>419</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
@@ -8745,21 +8766,23 @@
         <v>42</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="I61" t="s" s="2">
         <v>54</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>229</v>
+        <v>98</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>439</v>
+        <v>195</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="M61" s="2"/>
+        <v>420</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>197</v>
+      </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>42</v>
@@ -8784,13 +8807,13 @@
         <v>42</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>233</v>
+        <v>42</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>441</v>
+        <v>42</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>442</v>
+        <v>42</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>42</v>
@@ -8808,7 +8831,7 @@
         <v>42</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>438</v>
+        <v>421</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>43</v>
@@ -8817,7 +8840,7 @@
         <v>44</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>443</v>
+        <v>42</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>42</v>
@@ -8826,16 +8849,16 @@
         <v>42</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>235</v>
+        <v>42</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>444</v>
+        <v>96</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>445</v>
+        <v>42</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>42</v>
@@ -8843,7 +8866,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8866,13 +8889,13 @@
         <v>54</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>447</v>
+        <v>235</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -8899,13 +8922,13 @@
         <v>42</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>42</v>
+        <v>239</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>42</v>
+        <v>447</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>42</v>
+        <v>448</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>42</v>
@@ -8923,7 +8946,7 @@
         <v>42</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>43</v>
@@ -8932,7 +8955,7 @@
         <v>44</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>42</v>
@@ -8941,32 +8964,30 @@
         <v>42</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>42</v>
+        <v>241</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>428</v>
+        <v>450</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>42</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="D63" t="s" s="2">
-        <v>451</v>
-      </c>
+      <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
         <v>43</v>
       </c>
@@ -8974,22 +8995,22 @@
         <v>44</v>
       </c>
       <c r="G63" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I63" t="s" s="2">
         <v>54</v>
       </c>
-      <c r="H63" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="I63" t="s" s="2">
-        <v>42</v>
-      </c>
       <c r="J63" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -9040,7 +9061,7 @@
         <v>42</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>43</v>
@@ -9049,32 +9070,149 @@
         <v>44</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>42</v>
+        <v>449</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>455</v>
+        <v>42</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AL63" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AM63" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="AN63" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="AO63" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="2">
         <v>456</v>
       </c>
-      <c r="AM63" t="s" s="2">
+      <c r="B64" s="2"/>
+      <c r="C64" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D64" t="s" s="2">
         <v>457</v>
       </c>
-      <c r="AN63" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AO63" t="s" s="2">
+      <c r="E64" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F64" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="M64" s="2"/>
+      <c r="N64" s="2"/>
+      <c r="O64" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P64" s="2"/>
+      <c r="Q64" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R64" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S64" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="AN64" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AO64" t="s" s="2">
         <v>42</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO63">
+  <autoFilter ref="A1:AO64">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -9084,7 +9222,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI62">
+  <conditionalFormatting sqref="A2:AI63">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
